--- a/uploads/xlsx/personal_income_tax_2018.xlsx
+++ b/uploads/xlsx/personal_income_tax_2018.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangchencheng\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Liam/Documents/git-dev/BLOG/liam.page/zh/source/uploads/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3509C015-DCB2-E444-82FA-8680ED2BA247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月收入" sheetId="1" r:id="rId1"/>
     <sheet name="全年一次性奖金收入（2022 年以前）" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>一月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,50 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按月平均税后收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五险一金基数下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五险一金基数上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住房公积金个人缴存比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养老保险个人缴存比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗保险个人缴存比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失业保险个人缴存比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社保公积金基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起征点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三险一金减除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,28 +134,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京市 2018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在此基础上还要再 +3 元</t>
+    <t>养老保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失业保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工伤保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用平均工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下限比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴纳比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房公积金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外再交 3 元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗保险个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老保险个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失业保险个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有收入月份数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有收入月均收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当年税后总收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按月计算起征点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数 2020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.0;&quot;¥&quot;\-#,##0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +259,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -371,9 +447,7 @@
       <left style="double">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="double">
         <color auto="1"/>
       </top>
@@ -383,9 +457,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="double">
         <color auto="1"/>
       </right>
@@ -403,20 +475,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -428,10 +494,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -439,15 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,35 +512,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,722 +923,1189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="176" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="25.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14"/>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="15" thickTop="1">
+      <c r="A1" s="54"/>
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="C1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="J1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="K1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="L1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="M1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="N1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="O1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="34">
         <v>20000</v>
       </c>
-      <c r="C2" s="1">
-        <f>MIN(MAX($B$17,B2),$B$18)</f>
+      <c r="C2" s="14">
+        <f t="shared" ref="C2:C7" si="0">IF($B2=0,0,MIN($F$21,MAX($E$21,$B2)))*$G$21</f>
+        <v>1600</v>
+      </c>
+      <c r="D2" s="14">
+        <f t="shared" ref="D2:D7" si="1">IF($B2=0,0,MIN($F$22,MAX($E$22,$B2)))*$G$22</f>
+        <v>40</v>
+      </c>
+      <c r="E2" s="14">
+        <f t="shared" ref="E2:E7" si="2">IF($B2=0,0,MIN($F$24,MAX($E$24,$B2)))*$G$24+IF($B2=0,0,3)</f>
+        <v>403</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F7" si="3">ROUND(IF($B2=0,0,MIN($F$26,MAX($E$26,$B2)))*$G$26,0)</f>
+        <v>2400</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SUM(C2:F2)</f>
+        <v>4443</v>
+      </c>
+      <c r="H2" s="36">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I13" si="4">MAX(0,B2-SUM(G2:H2)-$B$18)</f>
+        <v>10557</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(I$2:I2)</f>
+        <v>10557</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" ref="K2:K13" si="5">IF(J2&lt;36000,0.03,IF(J2&lt;144000,0.1,IF(J2&lt;300000,0.2,IF(J2&lt;420000,0.25,IF(J2&lt;660000,0.3,IF(J2&lt;960000,0.35,0.45))))))</f>
+        <v>0.03</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L13" si="6">IF(J2&lt;36000,0,IF(J2&lt;144000,2520,IF(J2&lt;300000,16920,IF(J2&lt;420000,31920,IF(J2&lt;660000,52920,IF(J2&lt;960000,85920,181920))))))</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M13" si="7">J2*K2-L2</f>
+        <v>316.70999999999998</v>
+      </c>
+      <c r="N2" s="43">
+        <f>M2</f>
+        <v>316.70999999999998</v>
+      </c>
+      <c r="O2" s="38">
+        <f t="shared" ref="O2:O13" si="8">B2-G2-N2</f>
+        <v>15240.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34">
         <v>20000</v>
       </c>
-      <c r="D2" s="1">
-        <f>C2*SUM($B$19:$B$22)+3</f>
+      <c r="C3" s="14">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" si="2"/>
+        <v>403</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G13" si="9">SUM(C3:F3)</f>
         <v>4443</v>
       </c>
-      <c r="E2" s="1">
+      <c r="H3" s="36">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <f>MAX(0,B2-SUM(D2:E2)-$B$23)</f>
+      <c r="I3" s="1">
+        <f t="shared" si="4"/>
         <v>10557</v>
       </c>
-      <c r="G2" s="1">
-        <f>SUM(F$2:F2)</f>
-        <v>10557</v>
-      </c>
-      <c r="H2" s="5">
-        <f>IF(G2&lt;36000,0.03,IF(G2&lt;144000,0.1,IF(G2&lt;300000,0.2,IF(G2&lt;420000,0.25,IF(G2&lt;660000,0.3,IF(G2&lt;960000,0.35,0.45))))))</f>
+      <c r="J3" s="1">
+        <f>SUM(I$2:I3)</f>
+        <v>21114</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="I2" s="1">
-        <f>IF(G2&lt;36000,0,IF(G2&lt;144000,2520,IF(G2&lt;300000,16920,IF(G2&lt;420000,31920,IF(G2&lt;660000,52920,IF(G2&lt;960000,85920,181920))))))</f>
+      <c r="L3" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <f>G2*H2-I2</f>
+      <c r="M3" s="1">
+        <f t="shared" si="7"/>
+        <v>633.41999999999996</v>
+      </c>
+      <c r="N3" s="43">
+        <f>M3-M2</f>
         <v>316.70999999999998</v>
       </c>
-      <c r="K2" s="1">
-        <f>J2</f>
-        <v>316.70999999999998</v>
-      </c>
-      <c r="L2" s="3">
-        <f>B2-D2-K2</f>
+      <c r="O3" s="38">
+        <f t="shared" si="8"/>
         <v>15240.29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="4" spans="1:15">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34">
         <v>20000</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C13" si="0">MIN(MAX($B$17,B3),$B$18)</f>
-        <v>20000</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D13" si="1">C3*SUM($B$19:$B$22)+3</f>
+      <c r="C4" s="14">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="2"/>
+        <v>403</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="9"/>
         <v>4443</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H4" s="36">
         <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F13" si="2">MAX(0,B3-SUM(D3:E3)-$B$23)</f>
-        <v>10557</v>
-      </c>
-      <c r="G3" s="1">
-        <f>SUM(F$2:F3)</f>
-        <v>21114</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H13" si="3">IF(G3&lt;36000,0.03,IF(G3&lt;144000,0.1,IF(G3&lt;300000,0.2,IF(G3&lt;420000,0.25,IF(G3&lt;660000,0.3,IF(G3&lt;960000,0.35,0.45))))))</f>
-        <v>0.03</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I13" si="4">IF(G3&lt;36000,0,IF(G3&lt;144000,2520,IF(G3&lt;300000,16920,IF(G3&lt;420000,31920,IF(G3&lt;660000,52920,IF(G3&lt;960000,85920,181920))))))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J13" si="5">G3*H3-I3</f>
-        <v>633.41999999999996</v>
-      </c>
-      <c r="K3" s="1">
-        <f>J3-J2</f>
-        <v>316.70999999999998</v>
-      </c>
-      <c r="L3" s="3">
-        <f>B3-D3-K3</f>
-        <v>15240.29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="1"/>
-        <v>4443</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="2"/>
-        <v>10557</v>
-      </c>
-      <c r="G4" s="1">
-        <f>SUM(F$2:F4)</f>
-        <v>31671</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="4"/>
+        <v>10557</v>
+      </c>
+      <c r="J4" s="1">
+        <f>SUM(I$2:I4)</f>
+        <v>31671</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J4" s="1">
-        <f t="shared" si="5"/>
+      <c r="M4" s="1">
+        <f t="shared" si="7"/>
         <v>950.13</v>
       </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K13" si="6">J4-J3</f>
+      <c r="N4" s="43">
+        <f t="shared" ref="N4:N13" si="10">M4-M3</f>
         <v>316.71000000000004</v>
       </c>
-      <c r="L4" s="3">
-        <f>B4-D4-K4</f>
+      <c r="O4" s="38">
+        <f t="shared" si="8"/>
         <v>15240.29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="34">
         <v>20000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="D5" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D5" s="14">
         <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="2"/>
+        <v>403</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="9"/>
         <v>4443</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5" s="36">
         <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="2"/>
-        <v>10557</v>
-      </c>
-      <c r="G5" s="1">
-        <f>SUM(F$2:F5)</f>
-        <v>42228</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="4"/>
+        <v>10557</v>
+      </c>
+      <c r="J5" s="1">
+        <f>SUM(I$2:I5)</f>
+        <v>42228</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="6"/>
         <v>2520</v>
       </c>
-      <c r="J5" s="1">
-        <f t="shared" si="5"/>
+      <c r="M5" s="1">
+        <f t="shared" si="7"/>
         <v>1702.8000000000002</v>
       </c>
-      <c r="K5" s="1">
-        <f t="shared" si="6"/>
+      <c r="N5" s="43">
+        <f t="shared" si="10"/>
         <v>752.67000000000019</v>
       </c>
-      <c r="L5" s="3">
-        <f>B5-D5-K5</f>
+      <c r="O5" s="38">
+        <f t="shared" si="8"/>
         <v>14804.33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="34">
         <v>20000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="D6" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D6" s="14">
         <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="2"/>
+        <v>403</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="9"/>
         <v>4443</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6" s="36">
         <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>10557</v>
-      </c>
-      <c r="G6" s="1">
-        <f>SUM(F$2:F6)</f>
-        <v>52785</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
+        <v>10557</v>
+      </c>
+      <c r="J6" s="1">
+        <f>SUM(I$2:I6)</f>
+        <v>52785</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="6"/>
         <v>2520</v>
       </c>
-      <c r="J6" s="1">
-        <f t="shared" si="5"/>
+      <c r="M6" s="1">
+        <f t="shared" si="7"/>
         <v>2758.5</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" si="6"/>
+      <c r="N6" s="43">
+        <f t="shared" si="10"/>
         <v>1055.6999999999998</v>
       </c>
-      <c r="L6" s="3">
-        <f>B6-D6-K6</f>
+      <c r="O6" s="38">
+        <f t="shared" si="8"/>
         <v>14501.3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="34">
         <v>20000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="14">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="D7" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D7" s="14">
         <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="2"/>
+        <v>403</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="9"/>
         <v>4443</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7" s="36">
         <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="2"/>
-        <v>10557</v>
-      </c>
-      <c r="G7" s="1">
-        <f>SUM(F$2:F7)</f>
-        <v>63342</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
+        <v>10557</v>
+      </c>
+      <c r="J7" s="1">
+        <f>SUM(I$2:I7)</f>
+        <v>63342</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="6"/>
         <v>2520</v>
       </c>
-      <c r="J7" s="1">
-        <f t="shared" si="5"/>
+      <c r="M7" s="1">
+        <f t="shared" si="7"/>
         <v>3814.2000000000007</v>
       </c>
-      <c r="K7" s="1">
-        <f t="shared" si="6"/>
+      <c r="N7" s="43">
+        <f t="shared" si="10"/>
         <v>1055.7000000000007</v>
       </c>
-      <c r="L7" s="3">
-        <f>B7-D7-K7</f>
+      <c r="O7" s="38">
+        <f t="shared" si="8"/>
         <v>14501.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="34">
         <v>20000</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>4443</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="14">
+        <f t="shared" ref="C8:C13" si="11">IF($B8=0,0,MIN($F$29,MAX($E$29,$B8)))*$G$29</f>
+        <v>1256.8</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" ref="D8:D13" si="12">IF($B8=0,0,MIN($F$30,MAX($E$30,$B8)))*$G$30</f>
+        <v>40</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" ref="E8:E13" si="13">IF($B8=0,0,MIN($F$32,MAX($E$32,$B8)))*$G$32+IF($B8=0,0,3)</f>
+        <v>403</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ref="F8:F13" si="14">ROUND(IF($B8=0,0,MIN($F$34,MAX($E$34,$B8)))*$G$34,0)</f>
+        <v>2400</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="9"/>
+        <v>4099.8</v>
+      </c>
+      <c r="H8" s="36">
         <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="2"/>
-        <v>10557</v>
-      </c>
-      <c r="G8" s="1">
-        <f>SUM(F$2:F8)</f>
-        <v>73899</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
+        <v>10900.2</v>
+      </c>
+      <c r="J8" s="1">
+        <f>SUM(I$2:I8)</f>
+        <v>74242.2</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="6"/>
         <v>2520</v>
       </c>
-      <c r="J8" s="1">
-        <f t="shared" si="5"/>
-        <v>4869.9000000000005</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="6"/>
-        <v>1055.6999999999998</v>
-      </c>
-      <c r="L8" s="3">
-        <f>B8-D8-K8</f>
-        <v>14501.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="M8" s="1">
+        <f t="shared" si="7"/>
+        <v>4904.22</v>
+      </c>
+      <c r="N8" s="43">
+        <f t="shared" si="10"/>
+        <v>1090.0199999999995</v>
+      </c>
+      <c r="O8" s="38">
+        <f t="shared" si="8"/>
+        <v>14810.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="34">
         <v>20000</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>4443</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="14">
+        <f t="shared" si="11"/>
+        <v>1256.8</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="13"/>
+        <v>403</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="14"/>
+        <v>2400</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="9"/>
+        <v>4099.8</v>
+      </c>
+      <c r="H9" s="36">
         <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="2"/>
-        <v>10557</v>
-      </c>
-      <c r="G9" s="1">
-        <f>SUM(F$2:F9)</f>
-        <v>84456</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
+        <v>10900.2</v>
+      </c>
+      <c r="J9" s="1">
+        <f>SUM(I$2:I9)</f>
+        <v>85142.399999999994</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="6"/>
         <v>2520</v>
       </c>
-      <c r="J9" s="1">
-        <f t="shared" si="5"/>
-        <v>5925.6</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="6"/>
-        <v>1055.6999999999998</v>
-      </c>
-      <c r="L9" s="3">
-        <f>B9-D9-K9</f>
-        <v>14501.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="M9" s="1">
+        <f t="shared" si="7"/>
+        <v>5994.24</v>
+      </c>
+      <c r="N9" s="43">
+        <f t="shared" si="10"/>
+        <v>1090.0199999999995</v>
+      </c>
+      <c r="O9" s="38">
+        <f t="shared" si="8"/>
+        <v>14810.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="34">
         <v>20000</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>4443</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C10" s="14">
+        <f t="shared" si="11"/>
+        <v>1256.8</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="13"/>
+        <v>403</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="14"/>
+        <v>2400</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="9"/>
+        <v>4099.8</v>
+      </c>
+      <c r="H10" s="36">
         <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>10557</v>
-      </c>
-      <c r="G10" s="1">
-        <f>SUM(F$2:F10)</f>
-        <v>95013</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
+        <v>10900.2</v>
+      </c>
+      <c r="J10" s="1">
+        <f>SUM(I$2:I10)</f>
+        <v>96042.599999999991</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="6"/>
         <v>2520</v>
       </c>
-      <c r="J10" s="1">
-        <f t="shared" si="5"/>
-        <v>6981.3000000000011</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="6"/>
-        <v>1055.7000000000007</v>
-      </c>
-      <c r="L10" s="3">
-        <f>B10-D10-K10</f>
-        <v>14501.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="M10" s="1">
+        <f t="shared" si="7"/>
+        <v>7084.26</v>
+      </c>
+      <c r="N10" s="43">
+        <f t="shared" si="10"/>
+        <v>1090.0200000000004</v>
+      </c>
+      <c r="O10" s="38">
+        <f t="shared" si="8"/>
+        <v>14810.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="34">
         <v>20000</v>
       </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>4443</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="C11" s="14">
+        <f t="shared" si="11"/>
+        <v>1256.8</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="13"/>
+        <v>403</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="14"/>
+        <v>2400</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="9"/>
+        <v>4099.8</v>
+      </c>
+      <c r="H11" s="36">
         <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="2"/>
-        <v>10557</v>
-      </c>
-      <c r="G11" s="1">
-        <f>SUM(F$2:F11)</f>
-        <v>105570</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
+        <v>10900.2</v>
+      </c>
+      <c r="J11" s="1">
+        <f>SUM(I$2:I11)</f>
+        <v>106942.79999999999</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="6"/>
         <v>2520</v>
       </c>
-      <c r="J11" s="1">
-        <f t="shared" si="5"/>
-        <v>8037</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="6"/>
-        <v>1055.6999999999989</v>
-      </c>
-      <c r="L11" s="3">
-        <f>B11-D11-K11</f>
-        <v>14501.300000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="M11" s="1">
+        <f t="shared" si="7"/>
+        <v>8174.2799999999988</v>
+      </c>
+      <c r="N11" s="43">
+        <f t="shared" si="10"/>
+        <v>1090.0199999999986</v>
+      </c>
+      <c r="O11" s="38">
+        <f t="shared" si="8"/>
+        <v>14810.180000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="34">
         <v>20000</v>
       </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>4443</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C12" s="14">
+        <f t="shared" si="11"/>
+        <v>1256.8</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="13"/>
+        <v>403</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="14"/>
+        <v>2400</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="9"/>
+        <v>4099.8</v>
+      </c>
+      <c r="H12" s="36">
         <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="2"/>
-        <v>10557</v>
-      </c>
-      <c r="G12" s="1">
-        <f>SUM(F$2:F12)</f>
-        <v>116127</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
+        <v>10900.2</v>
+      </c>
+      <c r="J12" s="1">
+        <f>SUM(I$2:I12)</f>
+        <v>117842.99999999999</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="6"/>
         <v>2520</v>
       </c>
-      <c r="J12" s="1">
-        <f t="shared" si="5"/>
-        <v>9092.7000000000007</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="6"/>
-        <v>1055.7000000000007</v>
-      </c>
-      <c r="L12" s="3">
-        <f>B12-D12-K12</f>
-        <v>14501.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="M12" s="1">
+        <f t="shared" si="7"/>
+        <v>9264.2999999999993</v>
+      </c>
+      <c r="N12" s="43">
+        <f t="shared" si="10"/>
+        <v>1090.0200000000004</v>
+      </c>
+      <c r="O12" s="38">
+        <f t="shared" si="8"/>
+        <v>14810.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="35">
         <v>20000</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>4443</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="16">
+        <f t="shared" si="11"/>
+        <v>1256.8</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="13"/>
+        <v>403</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="14"/>
+        <v>2400</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="9"/>
+        <v>4099.8</v>
+      </c>
+      <c r="H13" s="37">
         <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>10557</v>
-      </c>
-      <c r="G13" s="2">
-        <f>SUM(F$2:F13)</f>
-        <v>126684</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="4"/>
+        <v>10900.2</v>
+      </c>
+      <c r="J13" s="2">
+        <f>SUM(I$2:I13)</f>
+        <v>128743.19999999998</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="6"/>
         <v>2520</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" si="5"/>
-        <v>10148.400000000001</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="6"/>
-        <v>1055.7000000000007</v>
-      </c>
-      <c r="L13" s="4">
-        <f>B13-D13-K13</f>
-        <v>14501.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K15" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="27">
-        <f>AVERAGE(L2:L13)</f>
-        <v>14711.299999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="M13" s="2">
+        <f t="shared" si="7"/>
+        <v>10354.32</v>
+      </c>
+      <c r="N13" s="44">
+        <f t="shared" si="10"/>
+        <v>1090.0200000000004</v>
+      </c>
+      <c r="O13" s="39">
+        <f t="shared" si="8"/>
+        <v>14810.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16" thickTop="1" thickBot="1"/>
+    <row r="15" spans="1:15" ht="15" thickTop="1">
+      <c r="N15" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="40">
+        <f>SUM(O2:O13)</f>
+        <v>178388.87999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="N16" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="41">
+        <f>COUNTIF(O2:O13,"&gt;0")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1">
+      <c r="N17" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="42">
+        <f>O15/O16</f>
+        <v>14865.739999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16" thickTop="1" thickBot="1">
+      <c r="A18" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="30">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16" thickTop="1" thickBot="1"/>
+    <row r="20" spans="1:15" ht="15" thickTop="1">
+      <c r="A20" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="23" t="s">
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="20">
+        <v>7855</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0.46</v>
+      </c>
+      <c r="D21" s="21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="48">
+        <f>ROUND(B21*C21,0)</f>
+        <v>3613</v>
+      </c>
+      <c r="F21" s="48">
+        <f>ROUND(B21*D21,0)</f>
+        <v>23565</v>
+      </c>
+      <c r="G21" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="H21" s="50"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="20">
+        <v>7855</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0.46</v>
+      </c>
+      <c r="D22" s="21">
+        <v>3</v>
+      </c>
+      <c r="E22" s="48">
+        <f t="shared" ref="E22:E26" si="15">ROUND(B22*C22,0)</f>
+        <v>3613</v>
+      </c>
+      <c r="F22" s="48">
+        <f t="shared" ref="F22:F26" si="16">ROUND(B22*D22,0)</f>
+        <v>23565</v>
+      </c>
+      <c r="G22" s="49">
+        <v>2E-3</v>
+      </c>
+      <c r="H22" s="50"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="14">
+        <v>7855</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="15">
+        <v>3</v>
+      </c>
+      <c r="E23" s="48">
+        <f t="shared" si="15"/>
+        <v>4713</v>
+      </c>
+      <c r="F23" s="48">
+        <f t="shared" si="16"/>
+        <v>23565</v>
+      </c>
+      <c r="G23" s="49">
+        <v>0</v>
+      </c>
+      <c r="H23" s="50"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="20">
+        <v>9262</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="21">
+        <v>3</v>
+      </c>
+      <c r="E24" s="48">
+        <f t="shared" si="15"/>
+        <v>5557</v>
+      </c>
+      <c r="F24" s="48">
+        <f t="shared" si="16"/>
+        <v>27786</v>
+      </c>
+      <c r="G24" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="14">
+        <v>9262</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D25" s="15">
+        <v>3</v>
+      </c>
+      <c r="E25" s="48">
+        <f t="shared" si="15"/>
+        <v>5557</v>
+      </c>
+      <c r="F25" s="48">
+        <f t="shared" si="16"/>
+        <v>27786</v>
+      </c>
+      <c r="G25" s="49">
+        <v>0</v>
+      </c>
+      <c r="H25" s="50"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" thickBot="1">
+      <c r="A26" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="17">
+        <v>9262</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="D26" s="18">
+        <v>3</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="15"/>
+        <v>2000</v>
+      </c>
+      <c r="F26" s="51">
+        <f t="shared" si="16"/>
+        <v>27786</v>
+      </c>
+      <c r="G26" s="52">
+        <v>0.12</v>
+      </c>
+      <c r="H26" s="53"/>
+    </row>
+    <row r="27" spans="1:15" ht="16" thickTop="1" thickBot="1"/>
+    <row r="28" spans="1:15" ht="15" thickTop="1">
+      <c r="A28" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3387</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="H28" s="55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23">
+        <v>7855</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="D29" s="24">
+        <v>2</v>
+      </c>
+      <c r="E29" s="48">
+        <f>ROUND(B29*C29,0)</f>
+        <v>3613</v>
+      </c>
+      <c r="F29" s="48">
+        <f>ROUND(B29*D29,0)</f>
+        <v>15710</v>
+      </c>
+      <c r="G29" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="H29" s="50"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23">
+        <v>7855</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="D30" s="24">
+        <v>3</v>
+      </c>
+      <c r="E30" s="48">
+        <f t="shared" ref="E30:E34" si="17">ROUND(B30*C30,0)</f>
+        <v>3613</v>
+      </c>
+      <c r="F30" s="48">
+        <f t="shared" ref="F30:F34" si="18">ROUND(B30*D30,0)</f>
+        <v>23565</v>
+      </c>
+      <c r="G30" s="49">
+        <v>2E-3</v>
+      </c>
+      <c r="H30" s="50"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14">
+        <v>7855</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D31" s="15">
+        <v>3</v>
+      </c>
+      <c r="E31" s="48">
+        <f t="shared" si="17"/>
+        <v>4713</v>
+      </c>
+      <c r="F31" s="48">
+        <f t="shared" si="18"/>
+        <v>23565</v>
+      </c>
+      <c r="G31" s="49">
+        <v>0</v>
+      </c>
+      <c r="H31" s="50"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="23">
+        <v>9262</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="D32" s="24">
+        <v>3</v>
+      </c>
+      <c r="E32" s="48">
+        <f t="shared" si="17"/>
+        <v>5557</v>
+      </c>
+      <c r="F32" s="48">
+        <f t="shared" si="18"/>
+        <v>27786</v>
+      </c>
+      <c r="G32" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14">
+        <v>9262</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D33" s="15">
+        <v>3</v>
+      </c>
+      <c r="E33" s="48">
+        <f t="shared" si="17"/>
+        <v>5557</v>
+      </c>
+      <c r="F33" s="48">
+        <f t="shared" si="18"/>
+        <v>27786</v>
+      </c>
+      <c r="G33" s="49">
+        <v>0</v>
+      </c>
+      <c r="H33" s="50"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1">
+      <c r="A34" s="47" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1">
-        <v>25401</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="12">
+      <c r="B34" s="26">
+        <v>9262</v>
+      </c>
+      <c r="C34" s="28">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="D34" s="27">
+        <v>3</v>
+      </c>
+      <c r="E34" s="51">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="F34" s="51">
+        <f t="shared" si="18"/>
+        <v>27786</v>
+      </c>
+      <c r="G34" s="52">
         <v>0.12</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="C20" s="24"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="C22" s="24"/>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="13">
-        <v>5000</v>
-      </c>
-      <c r="C23" s="25"/>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="H34" s="53"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1491,50 +2114,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="15" thickTop="1">
+      <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
+      <c r="A2" s="6">
         <v>30000</v>
       </c>
       <c r="B2" s="2">
         <f>A2/12</f>
         <v>2500</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <f>IF(B2&lt;3000,0.03,IF(B2&lt;12000,0.1,IF(B2&lt;25000,0.2,IF(B2&lt;35000,0.25,IF(B2&lt;55000,0.3,IF(B2&lt;80000,0.35,0.45))))))</f>
         <v>0.03</v>
       </c>
@@ -1542,16 +2167,16 @@
         <f>IF(B2&lt;3000,0,IF(B2&lt;12000,210,IF(B2&lt;25000,1410,IF(B2&lt;35000,2660,IF(B2&lt;55000,4410,IF(B2&lt;80000,7160,15160))))))</f>
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="44">
         <f>A2*C2-D2</f>
         <v>900</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="39">
         <f>A2-E2</f>
         <v>29100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:6" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
